--- a/REGULAR/CTO/ALEGA, ESTELITA.xlsx
+++ b/REGULAR/CTO/ALEGA, ESTELITA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="588">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1804,6 +1804,9 @@
   </si>
   <si>
     <t>9/26,27/2023</t>
+  </si>
+  <si>
+    <t>11/6-8/2023</t>
   </si>
 </sst>
 </file>
@@ -2845,7 +2848,7 @@
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="3510" topLeftCell="A679" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K697" sqref="K697"/>
+      <selection pane="bottomLeft" activeCell="C699" sqref="C699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3012,7 +3015,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>1.6670000000000869</v>
+        <v>2.9170000000000869</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3022,7 +3025,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>13.379999999999995</v>
+        <v>10.629999999999995</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18580,25 +18583,35 @@
       <c r="A698" s="40">
         <v>45200</v>
       </c>
-      <c r="B698" s="20"/>
-      <c r="C698" s="13"/>
+      <c r="B698" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C698" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D698" s="39"/>
       <c r="E698" s="9"/>
       <c r="F698" s="20"/>
-      <c r="G698" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H698" s="39"/>
+      <c r="G698" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H698" s="39">
+        <v>1</v>
+      </c>
       <c r="I698" s="9"/>
       <c r="J698" s="11"/>
-      <c r="K698" s="20"/>
+      <c r="K698" s="48">
+        <v>45208</v>
+      </c>
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
         <v>45231</v>
       </c>
-      <c r="B699" s="20"/>
+      <c r="B699" s="20" t="s">
+        <v>420</v>
+      </c>
       <c r="C699" s="13"/>
       <c r="D699" s="39"/>
       <c r="E699" s="9"/>
@@ -18607,10 +18620,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H699" s="39"/>
+      <c r="H699" s="39">
+        <v>3</v>
+      </c>
       <c r="I699" s="9"/>
       <c r="J699" s="11"/>
-      <c r="K699" s="20"/>
+      <c r="K699" s="20" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
